--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1303467.986786913</v>
+        <v>1299455.37677292</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10899122.42039919</v>
+        <v>10899122.4203992</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>330.7598727037317</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>252.4443191501087</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>6.470460640180782</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>19.58945082857592</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>201.66221878632</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>67.59049273774704</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>36.8019945406872</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1186,13 +1186,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>142.9978312840273</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,16 +1299,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>37.28717225616326</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>176.7621441121394</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0.4774956074563874</v>
       </c>
     </row>
     <row r="14">
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>140.3829797864969</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>158.2247274633612</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>143.3175246302656</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>71.22475183604979</v>
       </c>
       <c r="V28" t="n">
-        <v>221.6488161050624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>90.69284018412959</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>45.16086499484926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>3.475606507923247</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>176.7621441121407</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4649598217087</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>55.52079624060555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>100.0416311957212</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>243.4759147696092</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.96996784159929</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1590.416669135309</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2706.790414642315</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W2" t="n">
-        <v>2354.0217593722</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.556001111121</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y2" t="n">
-        <v>1590.416669135309</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686063</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106474</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080119</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986292</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978976</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.3097953702104</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>170.3736124423035</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>170.3736124423035</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>170.3736124423035</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V4" t="n">
-        <v>1259.157560278958</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="W4" t="n">
-        <v>969.7403902419976</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="X4" t="n">
-        <v>741.7508393439803</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9582602004501</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4570,7 +4570,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4585,7 +4585,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052369</v>
@@ -4594,22 +4594,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
@@ -4646,46 +4646,46 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4755,22 +4755,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1637.254707670396</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.837537633435</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X7" t="n">
-        <v>1347.837537633435</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3070.872899314016</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3070.872899314016</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2739.810011970445</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2739.810011970445</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2382.341170533245</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,10 +4886,10 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>846.3749096777597</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>677.4387267498528</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>527.322087337517</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1799.80028048626</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1510.697413611904</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1256.012925406017</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1256.012925406017</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1028.023374507999</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1028.023374507999</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5035,37 +5035,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>904.461687384549</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.840175011101</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="14">
@@ -5272,55 +5272,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>119.599202296584</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,16 +5603,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290469</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>699.73118040114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1271.108407302817</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.315828159287</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5840,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.951795518647</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687974</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408905</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2302.197907186053</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2082.596442208995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1793.521215553192</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1538.836727347305</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1249.419557310345</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1021.430006412328</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>800.6374272687974</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797189</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,31 +6241,31 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6311,22 +6311,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.315914855604</v>
+        <v>1905.516886736721</v>
       </c>
       <c r="V28" t="n">
-        <v>1936.428221820188</v>
+        <v>1650.832398530834</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1361.415228493873</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1133.425677595856</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>267.5122958789771</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611859</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263526</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>553.1252546331712</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>406.2353071352608</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>239.0392078501407</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>97.32737669233879</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3007.624207651099</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C37" t="n">
-        <v>2838.688024723192</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D37" t="n">
-        <v>2688.571385310857</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2540.658291728464</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2393.768344230553</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2393.768344230553</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2393.768344230553</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398594</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421536</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765734</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>3927.471972559847</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>3638.054802522886</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>3410.065251624869</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>3189.272672481339</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="38">
@@ -7162,43 +7162,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2345.91093085731</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,22 +7423,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118214</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2383.002557118214</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2808.971891347485</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3406.350378974037</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,67 +7545,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W43" t="n">
         <v>1729.097755135313</v>
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.450525729772</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3091.514342801865</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2941.39770338953</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4677.732174780816</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4494.877340435721</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4275.275875458662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3986.20064880286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3731.516160596973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3442.098990560012</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3442.098990560012</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3442.098990560012</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84741111297626e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>40.6433062151489</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.1071577446384</v>
       </c>
     </row>
     <row r="14">
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>145.8014946027472</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>67.48492792567592</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.9994244361429</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.70876137137904</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>214.9597225531944</v>
       </c>
       <c r="V28" t="n">
-        <v>30.48882721876564</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>74.83129810813925</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>173.4237883572455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>77.79022981064229</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>75.37549921168727</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2.150513196503681</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>25.74504007795997</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>80.98465480592338</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>43.0470835669818</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.40527886852237</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487168</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487168</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
@@ -26325,37 +26325,37 @@
         <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="I2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="J2" t="n">
         <v>484287.9598140037</v>
-      </c>
-      <c r="J2" t="n">
-        <v>484287.9598140038</v>
       </c>
       <c r="K2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140035</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>3.594527697714511e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
         <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26441,19 +26441,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-1034407.691393561</v>
       </c>
       <c r="C6" t="n">
-        <v>294337.054334032</v>
+        <v>294337.0543340322</v>
       </c>
       <c r="D6" t="n">
         <v>294337.0543340319</v>
       </c>
       <c r="E6" t="n">
-        <v>46585.93593094827</v>
+        <v>46238.55667659095</v>
       </c>
       <c r="F6" t="n">
-        <v>371998.3977383026</v>
+        <v>371651.018483946</v>
       </c>
       <c r="G6" t="n">
-        <v>371998.397738303</v>
+        <v>371651.0184839462</v>
       </c>
       <c r="H6" t="n">
-        <v>371998.3977383029</v>
+        <v>371651.018483946</v>
       </c>
       <c r="I6" t="n">
-        <v>371998.3977383031</v>
+        <v>371651.018483946</v>
       </c>
       <c r="J6" t="n">
-        <v>154467.1953410257</v>
+        <v>154119.8160866687</v>
       </c>
       <c r="K6" t="n">
-        <v>371998.397738303</v>
+        <v>371651.0184839461</v>
       </c>
       <c r="L6" t="n">
-        <v>371998.3977383031</v>
+        <v>371651.0184839459</v>
       </c>
       <c r="M6" t="n">
-        <v>286943.3698027913</v>
+        <v>286595.9905484341</v>
       </c>
       <c r="N6" t="n">
-        <v>371998.3977383031</v>
+        <v>371651.018483946</v>
       </c>
       <c r="O6" t="n">
-        <v>371998.3977383031</v>
+        <v>371651.018483946</v>
       </c>
       <c r="P6" t="n">
-        <v>371998.3977383029</v>
+        <v>371651.0184839459</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26746,7 +26746,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,28 +26807,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>23.92316891695128</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>75.30793932002618</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>138.9505873827505</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>206.1202045604612</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>126.090039683815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>184.547150586081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>345.9318471227934</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>60.92013885559288</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>182.2617770200059</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>468.9317632523006</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32323,19 +32323,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>414.6448185524877</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>168.0123247135882</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P24" t="n">
-        <v>436.0678650906011</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>568.8264345569154</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>330.3773834724264</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,19 +35971,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>272.5107846304694</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P24" t="n">
-        <v>302.0934576762708</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>71.39556506237767</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>138.9023428740565</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>430.2720547770412</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1299455.37677292</v>
+        <v>1301215.907075706</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10899122.4203992</v>
+        <v>10899122.42039919</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>330.7598727037317</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>82.60441573043168</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>112.1741413174393</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>19.58945082857592</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>128.8843715649906</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.79925355567548</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>61.42978662487896</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>176.4715702543003</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.8019945406872</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1192,16 +1192,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>74.70459810936914</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.4774956074563874</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>24.8326660635311</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>136.2892803597729</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>25.52471385612597</v>
+        <v>20.92847288552852</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>132.6315337216687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U28" t="n">
-        <v>71.22475183604979</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>90.69284018412959</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.475606507923247</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>146.4649598217087</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>100.0416311957212</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4143,13 +4143,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>99.97427419833815</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>212.5602966632231</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1952.040104645724</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1952.040104645724</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176918</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645724</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1952.040104645724</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986304</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.60866391532</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484846</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V4" t="n">
-        <v>1513.842048484846</v>
+        <v>1400.534835032886</v>
       </c>
       <c r="W4" t="n">
-        <v>1513.842048484846</v>
+        <v>1111.117664995925</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>883.128114097908</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>662.3355349543779</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2755.806928794325</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518381</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395024</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571093</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591989</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339178</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051532</v>
+        <v>991.0729916685059</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>763.0834407704886</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>542.2908616269584</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533245</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2382.341170533245</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1851.835358079029</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1660.149473905855</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1438.382858475381</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1438.382858475381</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1183.698370269494</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>955.7088193714769</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>734.9162402279468</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5372,13 +5372,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944943</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>119.599202296584</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>733.4550657171301</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>564.5188827892232</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>414.4022433768874</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>266.4891497944943</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>119.599202296584</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5977,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098237</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819168</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695811</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>516.389687887188</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>369.4997403892776</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.786198681611</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6220,52 +6220,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7772127656159</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1905.516886736721</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1650.832398530834</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1361.415228493873</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1133.425677595856</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.425677595856</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6445,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>414.4022433768874</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>267.5122958789771</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>701.0383482155643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>553.1252546331712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>406.2353071352608</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>239.0392078501407</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>97.32737669233879</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,10 +6925,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311989</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032921</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614387</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>951.777212765616</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>782.8410298377091</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2345.91093085731</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2126.309465880251</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>2126.309465880251</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1871.624977674364</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1582.207807637403</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1354.218256739386</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>1133.425677595856</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7490,25 +7490,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1977.461080510508</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998286</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>194.8007783998286</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228704</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.1071577446384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>114.7699989900979</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30.95754073885496</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24135,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.9994244361429</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24417,7 +24417,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U28" t="n">
-        <v>214.9597225531944</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>74.83129810813925</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>73.62417772602069</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>77.79022981064229</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.150513196503681</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>80.98465480592338</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,13 +26031,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>45.44677382459309</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>4.845153664065123</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>938587.6370487165</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="F2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="F2" t="n">
-        <v>484287.9598140037</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140038</v>
       </c>
       <c r="H2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140035</v>
       </c>
       <c r="I2" t="n">
         <v>484287.9598140036</v>
@@ -26343,10 +26343,10 @@
         <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140036</v>
@@ -26355,7 +26355,7 @@
         <v>484287.9598140037</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
         <v>90354.06702314477</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1034407.691393561</v>
+        <v>-1034407.69139356</v>
       </c>
       <c r="C6" t="n">
-        <v>294337.0543340322</v>
+        <v>294337.0543340318</v>
       </c>
       <c r="D6" t="n">
         <v>294337.0543340319</v>
       </c>
       <c r="E6" t="n">
-        <v>46238.55667659095</v>
+        <v>46551.19800551199</v>
       </c>
       <c r="F6" t="n">
-        <v>371651.018483946</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="G6" t="n">
-        <v>371651.0184839462</v>
+        <v>371963.6598128676</v>
       </c>
       <c r="H6" t="n">
-        <v>371651.018483946</v>
+        <v>371963.6598128671</v>
       </c>
       <c r="I6" t="n">
-        <v>371651.018483946</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="J6" t="n">
-        <v>154119.8160866687</v>
+        <v>154432.4574155899</v>
       </c>
       <c r="K6" t="n">
-        <v>371651.0184839461</v>
+        <v>371963.6598128673</v>
       </c>
       <c r="L6" t="n">
-        <v>371651.0184839459</v>
+        <v>371963.6598128673</v>
       </c>
       <c r="M6" t="n">
-        <v>286595.9905484341</v>
+        <v>286908.6318773555</v>
       </c>
       <c r="N6" t="n">
-        <v>371651.018483946</v>
+        <v>371963.6598128672</v>
       </c>
       <c r="O6" t="n">
-        <v>371651.018483946</v>
+        <v>371963.6598128673</v>
       </c>
       <c r="P6" t="n">
-        <v>371651.0184839459</v>
+        <v>371963.6598128673</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.92316891695128</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>328.3173099230218</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>139.9635020063887</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>206.1202045604612</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>277.9916741767208</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>362.4386851003781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>83.32522828944182</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>110.0514280822907</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>345.9318471227934</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>289.8157596099696</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>14.22755456067819</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,13 +32797,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,10 +33031,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>446.0127311990643</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33046,10 +33046,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33678,10 +33678,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33897,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,10 +34210,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34228,10 +34228,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,13 +36445,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,10 +36679,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>303.8786972770459</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
